--- a/documents/컬럼정의서.xlsx
+++ b/documents/컬럼정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B90F4-02F3-E24A-BD3F-A2648E15EB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E01CEF7-6C91-CF41-99B5-FB43DF6349B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>시스템명(영문)</t>
   </si>
@@ -130,46 +130,7 @@
     <t>전사통합IT자산관리</t>
   </si>
   <si>
-    <t>IDENTITY / SW자산번호</t>
-  </si>
-  <si>
-    <t>SW_008</t>
-  </si>
-  <si>
-    <t>1.영구, 2.기간, 3.임시, 4.서브스크립션</t>
-  </si>
-  <si>
     <t>코드정의서를 통해 정보 확인</t>
-  </si>
-  <si>
-    <t>SW_010</t>
-  </si>
-  <si>
-    <t>1.PROCESSOR, 2.CONCURRNT USER, 3.COPY, 4.USER, 5.SITE</t>
-  </si>
-  <si>
-    <t>SW_009</t>
-  </si>
-  <si>
-    <t>1.패키지, 2.볼륨, 3.OEM, 4.서비스</t>
-  </si>
-  <si>
-    <t>SW_007</t>
-  </si>
-  <si>
-    <t>1.PROCESSOR, 2.CORE, 4.USER, 5.COPY, 6.CS</t>
-  </si>
-  <si>
-    <t>사용자제한수량이 "제한없음" 아닌 경우 입력</t>
-  </si>
-  <si>
-    <t>NM_001</t>
-  </si>
-  <si>
-    <t>NM_002</t>
-  </si>
-  <si>
-    <t>NM_003</t>
   </si>
   <si>
     <t>CAB_RIDES</t>
@@ -234,10 +195,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -275,6 +232,14 @@
   </si>
   <si>
     <t>택시운행정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -508,6 +473,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,15 +489,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,8 +853,8 @@
   </sheetPr>
   <dimension ref="A1:O945"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -912,23 +877,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="32">
       <c r="A2" s="2" t="s">
@@ -984,23 +949,23 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="8">
         <v>4</v>
@@ -1010,7 +975,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="O3" s="5"/>
     </row>
@@ -1025,19 +990,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8">
         <v>4</v>
@@ -1045,9 +1010,13 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="3">
@@ -1060,19 +1029,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -1080,15 +1049,9 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="3">
@@ -1101,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
@@ -1121,15 +1084,9 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="3">
@@ -1142,19 +1099,19 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -1162,15 +1119,9 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="3">
@@ -1183,19 +1134,19 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I8" s="8">
         <v>1</v>
@@ -1203,15 +1154,9 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="3">
@@ -1224,19 +1169,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
@@ -1246,9 +1191,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="3">
@@ -1261,33 +1204,31 @@
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I10" s="8">
         <v>100</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="11"/>
       <c r="O10" s="5"/>
     </row>
@@ -1302,19 +1243,19 @@
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I11" s="8">
         <v>100</v>
@@ -1322,9 +1263,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="11"/>
       <c r="O11" s="5"/>
     </row>
@@ -1339,19 +1278,19 @@
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I12" s="8">
         <v>9</v>
@@ -1359,9 +1298,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="11"/>
       <c r="O12" s="5"/>
     </row>

--- a/documents/컬럼정의서.xlsx
+++ b/documents/컬럼정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E01CEF7-6C91-CF41-99B5-FB43DF6349B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1757433-7E64-F842-83F9-3EFFB8673A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <definedName name="샘플">'[2]양식(정의서)'!#REF!</definedName>
     <definedName name="손사_타영역">'[1]신계약_청약의뢰(개별)'!#REF!</definedName>
     <definedName name="신규여부">[3]Sheet3!$A$1:$A$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">컬럼정의서!$A$1:$O$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">컬럼정의서!$A$1:$O$39</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
     <definedName name="T01_컬럼정보_Query">#REF!</definedName>
   </definedNames>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="78">
   <si>
     <t>시스템명(영문)</t>
   </si>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>회사명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -241,6 +237,96 @@
   <si>
     <t>SW_001</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAB_RIDES</t>
+  </si>
+  <si>
+    <t>택시운행정보</t>
+  </si>
+  <si>
+    <t>회사명</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>ZTC_TX_HISTORY</t>
+  </si>
+  <si>
+    <t>Zattera 토큰 거래 내역 데이터 테이블</t>
+  </si>
+  <si>
+    <t>CNT_TX_HISTORY</t>
+  </si>
+  <si>
+    <t>Continue 토큰 거래 내역 데이터 테이블</t>
+  </si>
+  <si>
+    <t>ZBZ_TX_HISTORY</t>
+  </si>
+  <si>
+    <t>Zombiz 토큰 거래 내역 데이터 테이블</t>
+  </si>
+  <si>
+    <t>TX HASH</t>
+  </si>
+  <si>
+    <t>거래 해시 정보</t>
+  </si>
+  <si>
+    <t>BLOCK #</t>
+  </si>
+  <si>
+    <t>거래 블록 정보</t>
+  </si>
+  <si>
+    <t>TIME(KST)</t>
+  </si>
+  <si>
+    <t>거래 일시</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>토큰 출발 지갑 주소</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>토큰 도착 지갑 주소</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>토큰 거래액</t>
+  </si>
+  <si>
+    <t>TOKEN ADDRESS</t>
+  </si>
+  <si>
+    <t>토큰 주소 해시 정보</t>
+  </si>
+  <si>
+    <t>TOKEN NAME</t>
+  </si>
+  <si>
+    <t>토큰명</t>
+  </si>
+  <si>
+    <t>TOKEN SYMBOL</t>
+  </si>
+  <si>
+    <t>토큰 기호</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -851,10 +937,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O945"/>
+  <dimension ref="A1:O972"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -956,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -975,7 +1061,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="5"/>
     </row>
@@ -993,13 +1079,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>36</v>
@@ -1011,7 +1097,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
@@ -1032,7 +1118,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>23</v>
@@ -1067,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>24</v>
@@ -1102,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>25</v>
@@ -1137,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
@@ -1172,7 +1258,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>27</v>
@@ -1207,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>28</v>
@@ -1222,11 +1308,11 @@
         <v>100</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="11"/>
@@ -1246,7 +1332,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>29</v>
@@ -1278,19 +1364,19 @@
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
+      <c r="G12" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I12" s="8">
         <v>9</v>
@@ -1302,250 +1388,946 @@
       <c r="N12" s="11"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1">
-      <c r="F13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1">
-      <c r="F14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1">
-      <c r="F15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1">
-      <c r="F16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="O32" s="14"/>
-    </row>
-    <row r="33" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="12"/>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="12"/>
-      <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12"/>
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="12"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="6:15" ht="16.5" customHeight="1">
-      <c r="F39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="12"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="6:15" ht="16.5" customHeight="1">
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" customHeight="1">
       <c r="F40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -1554,7 +2336,7 @@
       <c r="L40" s="12"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="6:15" ht="16.5" customHeight="1">
+    <row r="41" spans="1:15" ht="16.5" customHeight="1">
       <c r="F41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -1563,7 +2345,7 @@
       <c r="L41" s="12"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="6:15" ht="16.5" customHeight="1">
+    <row r="42" spans="1:15" ht="16.5" customHeight="1">
       <c r="F42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -1572,7 +2354,7 @@
       <c r="L42" s="12"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="6:15" ht="16.5" customHeight="1">
+    <row r="43" spans="1:15" ht="16.5" customHeight="1">
       <c r="F43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -1581,7 +2363,7 @@
       <c r="L43" s="12"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="6:15" ht="16.5" customHeight="1">
+    <row r="44" spans="1:15" ht="16.5" customHeight="1">
       <c r="F44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -1590,7 +2372,7 @@
       <c r="L44" s="12"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="6:15" ht="16.5" customHeight="1">
+    <row r="45" spans="1:15" ht="16.5" customHeight="1">
       <c r="F45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -1599,7 +2381,7 @@
       <c r="L45" s="12"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="6:15" ht="16.5" customHeight="1">
+    <row r="46" spans="1:15" ht="16.5" customHeight="1">
       <c r="F46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -1608,7 +2390,7 @@
       <c r="L46" s="12"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="6:15" ht="16.5" customHeight="1">
+    <row r="47" spans="1:15" ht="16.5" customHeight="1">
       <c r="F47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1617,7 +2399,7 @@
       <c r="L47" s="12"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="6:15" ht="16.5" customHeight="1">
+    <row r="48" spans="1:15" ht="16.5" customHeight="1">
       <c r="F48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -3106,8 +3888,8 @@
       <c r="F213" s="12"/>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="12"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="13"/>
       <c r="L213" s="12"/>
       <c r="O213" s="14"/>
     </row>
@@ -3115,8 +3897,8 @@
       <c r="F214" s="12"/>
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
-      <c r="J214" s="12"/>
-      <c r="K214" s="12"/>
+      <c r="J214" s="13"/>
+      <c r="K214" s="13"/>
       <c r="L214" s="12"/>
       <c r="O214" s="14"/>
     </row>
@@ -3124,8 +3906,8 @@
       <c r="F215" s="12"/>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="12"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="13"/>
       <c r="L215" s="12"/>
       <c r="O215" s="14"/>
     </row>
@@ -3133,8 +3915,8 @@
       <c r="F216" s="12"/>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13"/>
       <c r="L216" s="12"/>
       <c r="O216" s="14"/>
     </row>
@@ -3142,8 +3924,8 @@
       <c r="F217" s="12"/>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
-      <c r="J217" s="12"/>
-      <c r="K217" s="12"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
       <c r="L217" s="12"/>
       <c r="O217" s="14"/>
     </row>
@@ -3151,8 +3933,8 @@
       <c r="F218" s="12"/>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
-      <c r="K218" s="12"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
       <c r="L218" s="12"/>
       <c r="O218" s="14"/>
     </row>
@@ -3160,8 +3942,8 @@
       <c r="F219" s="12"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
-      <c r="J219" s="12"/>
-      <c r="K219" s="12"/>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13"/>
       <c r="L219" s="12"/>
       <c r="O219" s="14"/>
     </row>
@@ -3169,8 +3951,8 @@
       <c r="F220" s="12"/>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
+      <c r="J220" s="13"/>
+      <c r="K220" s="13"/>
       <c r="L220" s="12"/>
       <c r="O220" s="14"/>
     </row>
@@ -3178,8 +3960,8 @@
       <c r="F221" s="12"/>
       <c r="H221" s="12"/>
       <c r="I221" s="12"/>
-      <c r="J221" s="12"/>
-      <c r="K221" s="12"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="13"/>
       <c r="L221" s="12"/>
       <c r="O221" s="14"/>
     </row>
@@ -3187,8 +3969,8 @@
       <c r="F222" s="12"/>
       <c r="H222" s="12"/>
       <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="12"/>
+      <c r="J222" s="13"/>
+      <c r="K222" s="13"/>
       <c r="L222" s="12"/>
       <c r="O222" s="14"/>
     </row>
@@ -3196,8 +3978,8 @@
       <c r="F223" s="12"/>
       <c r="H223" s="12"/>
       <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="K223" s="12"/>
+      <c r="J223" s="13"/>
+      <c r="K223" s="13"/>
       <c r="L223" s="12"/>
       <c r="O223" s="14"/>
     </row>
@@ -3205,8 +3987,8 @@
       <c r="F224" s="12"/>
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
-      <c r="J224" s="12"/>
-      <c r="K224" s="12"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
       <c r="L224" s="12"/>
       <c r="O224" s="14"/>
     </row>
@@ -3214,8 +3996,8 @@
       <c r="F225" s="12"/>
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
-      <c r="J225" s="12"/>
-      <c r="K225" s="12"/>
+      <c r="J225" s="13"/>
+      <c r="K225" s="13"/>
       <c r="L225" s="12"/>
       <c r="O225" s="14"/>
     </row>
@@ -3223,8 +4005,8 @@
       <c r="F226" s="12"/>
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
+      <c r="J226" s="13"/>
+      <c r="K226" s="13"/>
       <c r="L226" s="12"/>
       <c r="O226" s="14"/>
     </row>
@@ -3232,8 +4014,8 @@
       <c r="F227" s="12"/>
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
-      <c r="J227" s="12"/>
-      <c r="K227" s="12"/>
+      <c r="J227" s="13"/>
+      <c r="K227" s="13"/>
       <c r="L227" s="12"/>
       <c r="O227" s="14"/>
     </row>
@@ -3241,8 +4023,8 @@
       <c r="F228" s="12"/>
       <c r="H228" s="12"/>
       <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-      <c r="K228" s="12"/>
+      <c r="J228" s="13"/>
+      <c r="K228" s="13"/>
       <c r="L228" s="12"/>
       <c r="O228" s="14"/>
     </row>
@@ -3250,8 +4032,8 @@
       <c r="F229" s="12"/>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
-      <c r="J229" s="12"/>
-      <c r="K229" s="12"/>
+      <c r="J229" s="13"/>
+      <c r="K229" s="13"/>
       <c r="L229" s="12"/>
       <c r="O229" s="14"/>
     </row>
@@ -3259,8 +4041,8 @@
       <c r="F230" s="12"/>
       <c r="H230" s="12"/>
       <c r="I230" s="12"/>
-      <c r="J230" s="12"/>
-      <c r="K230" s="12"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
       <c r="L230" s="12"/>
       <c r="O230" s="14"/>
     </row>
@@ -3268,8 +4050,8 @@
       <c r="F231" s="12"/>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
-      <c r="J231" s="12"/>
-      <c r="K231" s="12"/>
+      <c r="J231" s="13"/>
+      <c r="K231" s="13"/>
       <c r="L231" s="12"/>
       <c r="O231" s="14"/>
     </row>
@@ -3277,8 +4059,8 @@
       <c r="F232" s="12"/>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
-      <c r="J232" s="12"/>
-      <c r="K232" s="12"/>
+      <c r="J232" s="13"/>
+      <c r="K232" s="13"/>
       <c r="L232" s="12"/>
       <c r="O232" s="14"/>
     </row>
@@ -3286,8 +4068,8 @@
       <c r="F233" s="12"/>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
-      <c r="J233" s="12"/>
-      <c r="K233" s="12"/>
+      <c r="J233" s="13"/>
+      <c r="K233" s="13"/>
       <c r="L233" s="12"/>
       <c r="O233" s="14"/>
     </row>
@@ -3295,8 +4077,8 @@
       <c r="F234" s="12"/>
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
-      <c r="J234" s="12"/>
-      <c r="K234" s="12"/>
+      <c r="J234" s="13"/>
+      <c r="K234" s="13"/>
       <c r="L234" s="12"/>
       <c r="O234" s="14"/>
     </row>
@@ -3304,8 +4086,8 @@
       <c r="F235" s="12"/>
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="12"/>
+      <c r="J235" s="13"/>
+      <c r="K235" s="13"/>
       <c r="L235" s="12"/>
       <c r="O235" s="14"/>
     </row>
@@ -3313,8 +4095,8 @@
       <c r="F236" s="12"/>
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-      <c r="K236" s="12"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
       <c r="L236" s="12"/>
       <c r="O236" s="14"/>
     </row>
@@ -3322,8 +4104,8 @@
       <c r="F237" s="12"/>
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="12"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="13"/>
       <c r="L237" s="12"/>
       <c r="O237" s="14"/>
     </row>
@@ -3331,8 +4113,8 @@
       <c r="F238" s="12"/>
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="12"/>
+      <c r="J238" s="13"/>
+      <c r="K238" s="13"/>
       <c r="L238" s="12"/>
       <c r="O238" s="14"/>
     </row>
@@ -3340,8 +4122,8 @@
       <c r="F239" s="12"/>
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="12"/>
+      <c r="J239" s="13"/>
+      <c r="K239" s="13"/>
       <c r="L239" s="12"/>
       <c r="O239" s="14"/>
     </row>
@@ -9698,6 +10480,249 @@
       <c r="K945" s="12"/>
       <c r="L945" s="12"/>
       <c r="O945" s="14"/>
+    </row>
+    <row r="946" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F946" s="12"/>
+      <c r="H946" s="12"/>
+      <c r="I946" s="12"/>
+      <c r="J946" s="12"/>
+      <c r="K946" s="12"/>
+      <c r="L946" s="12"/>
+      <c r="O946" s="14"/>
+    </row>
+    <row r="947" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F947" s="12"/>
+      <c r="H947" s="12"/>
+      <c r="I947" s="12"/>
+      <c r="J947" s="12"/>
+      <c r="K947" s="12"/>
+      <c r="L947" s="12"/>
+      <c r="O947" s="14"/>
+    </row>
+    <row r="948" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F948" s="12"/>
+      <c r="H948" s="12"/>
+      <c r="I948" s="12"/>
+      <c r="J948" s="12"/>
+      <c r="K948" s="12"/>
+      <c r="L948" s="12"/>
+      <c r="O948" s="14"/>
+    </row>
+    <row r="949" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F949" s="12"/>
+      <c r="H949" s="12"/>
+      <c r="I949" s="12"/>
+      <c r="J949" s="12"/>
+      <c r="K949" s="12"/>
+      <c r="L949" s="12"/>
+      <c r="O949" s="14"/>
+    </row>
+    <row r="950" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F950" s="12"/>
+      <c r="H950" s="12"/>
+      <c r="I950" s="12"/>
+      <c r="J950" s="12"/>
+      <c r="K950" s="12"/>
+      <c r="L950" s="12"/>
+      <c r="O950" s="14"/>
+    </row>
+    <row r="951" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F951" s="12"/>
+      <c r="H951" s="12"/>
+      <c r="I951" s="12"/>
+      <c r="J951" s="12"/>
+      <c r="K951" s="12"/>
+      <c r="L951" s="12"/>
+      <c r="O951" s="14"/>
+    </row>
+    <row r="952" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F952" s="12"/>
+      <c r="H952" s="12"/>
+      <c r="I952" s="12"/>
+      <c r="J952" s="12"/>
+      <c r="K952" s="12"/>
+      <c r="L952" s="12"/>
+      <c r="O952" s="14"/>
+    </row>
+    <row r="953" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F953" s="12"/>
+      <c r="H953" s="12"/>
+      <c r="I953" s="12"/>
+      <c r="J953" s="12"/>
+      <c r="K953" s="12"/>
+      <c r="L953" s="12"/>
+      <c r="O953" s="14"/>
+    </row>
+    <row r="954" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F954" s="12"/>
+      <c r="H954" s="12"/>
+      <c r="I954" s="12"/>
+      <c r="J954" s="12"/>
+      <c r="K954" s="12"/>
+      <c r="L954" s="12"/>
+      <c r="O954" s="14"/>
+    </row>
+    <row r="955" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F955" s="12"/>
+      <c r="H955" s="12"/>
+      <c r="I955" s="12"/>
+      <c r="J955" s="12"/>
+      <c r="K955" s="12"/>
+      <c r="L955" s="12"/>
+      <c r="O955" s="14"/>
+    </row>
+    <row r="956" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F956" s="12"/>
+      <c r="H956" s="12"/>
+      <c r="I956" s="12"/>
+      <c r="J956" s="12"/>
+      <c r="K956" s="12"/>
+      <c r="L956" s="12"/>
+      <c r="O956" s="14"/>
+    </row>
+    <row r="957" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F957" s="12"/>
+      <c r="H957" s="12"/>
+      <c r="I957" s="12"/>
+      <c r="J957" s="12"/>
+      <c r="K957" s="12"/>
+      <c r="L957" s="12"/>
+      <c r="O957" s="14"/>
+    </row>
+    <row r="958" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F958" s="12"/>
+      <c r="H958" s="12"/>
+      <c r="I958" s="12"/>
+      <c r="J958" s="12"/>
+      <c r="K958" s="12"/>
+      <c r="L958" s="12"/>
+      <c r="O958" s="14"/>
+    </row>
+    <row r="959" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F959" s="12"/>
+      <c r="H959" s="12"/>
+      <c r="I959" s="12"/>
+      <c r="J959" s="12"/>
+      <c r="K959" s="12"/>
+      <c r="L959" s="12"/>
+      <c r="O959" s="14"/>
+    </row>
+    <row r="960" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F960" s="12"/>
+      <c r="H960" s="12"/>
+      <c r="I960" s="12"/>
+      <c r="J960" s="12"/>
+      <c r="K960" s="12"/>
+      <c r="L960" s="12"/>
+      <c r="O960" s="14"/>
+    </row>
+    <row r="961" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F961" s="12"/>
+      <c r="H961" s="12"/>
+      <c r="I961" s="12"/>
+      <c r="J961" s="12"/>
+      <c r="K961" s="12"/>
+      <c r="L961" s="12"/>
+      <c r="O961" s="14"/>
+    </row>
+    <row r="962" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F962" s="12"/>
+      <c r="H962" s="12"/>
+      <c r="I962" s="12"/>
+      <c r="J962" s="12"/>
+      <c r="K962" s="12"/>
+      <c r="L962" s="12"/>
+      <c r="O962" s="14"/>
+    </row>
+    <row r="963" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F963" s="12"/>
+      <c r="H963" s="12"/>
+      <c r="I963" s="12"/>
+      <c r="J963" s="12"/>
+      <c r="K963" s="12"/>
+      <c r="L963" s="12"/>
+      <c r="O963" s="14"/>
+    </row>
+    <row r="964" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F964" s="12"/>
+      <c r="H964" s="12"/>
+      <c r="I964" s="12"/>
+      <c r="J964" s="12"/>
+      <c r="K964" s="12"/>
+      <c r="L964" s="12"/>
+      <c r="O964" s="14"/>
+    </row>
+    <row r="965" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F965" s="12"/>
+      <c r="H965" s="12"/>
+      <c r="I965" s="12"/>
+      <c r="J965" s="12"/>
+      <c r="K965" s="12"/>
+      <c r="L965" s="12"/>
+      <c r="O965" s="14"/>
+    </row>
+    <row r="966" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F966" s="12"/>
+      <c r="H966" s="12"/>
+      <c r="I966" s="12"/>
+      <c r="J966" s="12"/>
+      <c r="K966" s="12"/>
+      <c r="L966" s="12"/>
+      <c r="O966" s="14"/>
+    </row>
+    <row r="967" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F967" s="12"/>
+      <c r="H967" s="12"/>
+      <c r="I967" s="12"/>
+      <c r="J967" s="12"/>
+      <c r="K967" s="12"/>
+      <c r="L967" s="12"/>
+      <c r="O967" s="14"/>
+    </row>
+    <row r="968" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F968" s="12"/>
+      <c r="H968" s="12"/>
+      <c r="I968" s="12"/>
+      <c r="J968" s="12"/>
+      <c r="K968" s="12"/>
+      <c r="L968" s="12"/>
+      <c r="O968" s="14"/>
+    </row>
+    <row r="969" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F969" s="12"/>
+      <c r="H969" s="12"/>
+      <c r="I969" s="12"/>
+      <c r="J969" s="12"/>
+      <c r="K969" s="12"/>
+      <c r="L969" s="12"/>
+      <c r="O969" s="14"/>
+    </row>
+    <row r="970" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F970" s="12"/>
+      <c r="H970" s="12"/>
+      <c r="I970" s="12"/>
+      <c r="J970" s="12"/>
+      <c r="K970" s="12"/>
+      <c r="L970" s="12"/>
+      <c r="O970" s="14"/>
+    </row>
+    <row r="971" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F971" s="12"/>
+      <c r="H971" s="12"/>
+      <c r="I971" s="12"/>
+      <c r="J971" s="12"/>
+      <c r="K971" s="12"/>
+      <c r="L971" s="12"/>
+      <c r="O971" s="14"/>
+    </row>
+    <row r="972" spans="6:15" ht="16.5" customHeight="1">
+      <c r="F972" s="12"/>
+      <c r="H972" s="12"/>
+      <c r="I972" s="12"/>
+      <c r="J972" s="12"/>
+      <c r="K972" s="12"/>
+      <c r="L972" s="12"/>
+      <c r="O972" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/컬럼정의서.xlsx
+++ b/documents/컬럼정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1757433-7E64-F842-83F9-3EFFB8673A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24BC392-8882-D543-8DCA-FAE3973104EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="79">
   <si>
     <t>시스템명(영문)</t>
   </si>
@@ -327,6 +327,10 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -940,7 +944,7 @@
   <dimension ref="A1:O972"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2105,7 +2109,7 @@
         <v>63</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>

--- a/documents/컬럼정의서.xlsx
+++ b/documents/컬럼정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24BC392-8882-D543-8DCA-FAE3973104EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335FCD7B-88A9-5D49-9070-07E12DCBD132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="80">
   <si>
     <t>시스템명(영문)</t>
   </si>
@@ -124,20 +124,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ITAM</t>
-  </si>
-  <si>
-    <t>전사통합IT자산관리</t>
-  </si>
-  <si>
     <t>코드정의서를 통해 정보 확인</t>
   </si>
   <si>
     <t>CAB_RIDES</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사통합IT자산관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -330,6 +320,20 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터DB</t>
+  </si>
+  <si>
+    <t>데이터DB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DB</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +948,7 @@
   <dimension ref="A1:O972"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1037,25 +1041,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" s="8">
         <v>4</v>
@@ -1065,7 +1069,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O3" s="5"/>
     </row>
@@ -1074,25 +1078,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" s="8">
         <v>4</v>
@@ -1101,11 +1105,11 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1">
@@ -1113,25 +1117,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -1148,25 +1152,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
@@ -1183,25 +1187,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -1218,25 +1222,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" s="8">
         <v>1</v>
@@ -1253,25 +1257,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
@@ -1288,35 +1292,35 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="8">
         <v>100</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="11"/>
@@ -1327,25 +1331,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I11" s="8">
         <v>100</v>
@@ -1362,25 +1366,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="I12" s="8">
         <v>9</v>
@@ -1397,31 +1401,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="11"/>
@@ -1432,25 +1436,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1465,31 +1469,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="11"/>
@@ -1500,31 +1504,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="11"/>
@@ -1535,31 +1539,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="11"/>
@@ -1570,31 +1574,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="11"/>
@@ -1605,31 +1609,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="11"/>
@@ -1640,31 +1644,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="11"/>
@@ -1675,31 +1679,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="11"/>
@@ -1710,31 +1714,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G22" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="11"/>
@@ -1745,25 +1749,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1778,31 +1782,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="11"/>
@@ -1813,31 +1817,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="11"/>
@@ -1848,31 +1852,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="11"/>
@@ -1883,31 +1887,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="11"/>
@@ -1918,31 +1922,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="11"/>
@@ -1953,31 +1957,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="11"/>
@@ -1988,31 +1992,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="11"/>
@@ -2023,31 +2027,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="H31" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="11"/>
@@ -2058,25 +2062,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G32" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2091,31 +2095,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="11"/>
@@ -2126,31 +2130,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="11"/>
@@ -2161,31 +2165,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="11"/>
@@ -2196,31 +2200,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="11"/>
@@ -2231,31 +2235,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="11"/>
@@ -2266,31 +2270,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="11"/>
@@ -2301,31 +2305,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="11"/>
